--- a/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 20211.xlsx
+++ b/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Mat</t>
   </si>
@@ -71,6 +71,30 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>CHORA</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>GABRIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>NADYA GUADALUPE</t>
   </si>
 </sst>
 </file>
@@ -704,7 +728,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -737,6 +761,75 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920239</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 20211.xlsx
+++ b/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 20211.xlsx
@@ -495,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>58.33</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>8.5</v>
@@ -589,10 +589,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>14</v>
@@ -677,10 +677,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>58.33</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>8.5</v>

--- a/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 20211.xlsx
+++ b/docentes/De Jesús Orduña Sofía del Pilar - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>Mat</t>
   </si>
@@ -76,6 +76,9 @@
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>HERAS</t>
+  </si>
+  <si>
     <t>CHORA</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>EVELYN</t>
+  </si>
+  <si>
+    <t>CESAR ENRIQUE</t>
   </si>
   <si>
     <t>GABRIEL ALEJANDRO</t>
@@ -728,7 +734,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +775,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -786,7 +792,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920227</v>
+        <v>19330051920235</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -795,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -809,16 +815,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920239</v>
+        <v>19330051920227</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -827,6 +833,29 @@
         <v>11</v>
       </c>
       <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920239</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
     </row>
